--- a/biology/Zoologie/Adelpha_hesterbergi/Adelpha_hesterbergi.xlsx
+++ b/biology/Zoologie/Adelpha_hesterbergi/Adelpha_hesterbergi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adelpha hesterbergi est une espèce de papillons de la famille des Nymphalidae, sous famille des Limenitidinae et du genre Adelpha.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelpha hesterbergi a été décrit par Keith Richard Willmott (d) et Jason Piers Wilton Hall en 1999[1].
-Nom vernaculaire
-Adelpha hesterbergi se nomme Hesterberg's Sister en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha hesterbergi a été décrit par Keith Richard Willmott (d) et Jason Piers Wilton Hall en 1999.
 </t>
         </is>
       </c>
@@ -541,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adelpha shuara est un papillon à bord externe des ailes antérieures légèrement concave au dessus marron foncé marqué dans l'aire discale des ailes antérieures d'une large bande jaune, qui au bord costal se sépare en deux branches laissant une plage arrondie marron et dans l'aire discale des ailes postérieures d'une bande blanche se terminant en pointe avant le bord interne.
-Le revers est orangé rayé de bleu-gris clair avec la même large bande que sur le dessus mais blanche nimbée d'orange aux ailes antérieures.
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha hesterbergi se nomme Hesterberg's Sister en anglais.
 </t>
         </is>
       </c>
@@ -573,14 +590,85 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha shuara est un papillon à bord externe des ailes antérieures légèrement concave au dessus marron foncé marqué dans l'aire discale des ailes antérieures d'une large bande jaune, qui au bord costal se sépare en deux branches laissant une plage arrondie marron et dans l'aire discale des ailes postérieures d'une bande blanche se terminant en pointe avant le bord interne.
+Le revers est orangé rayé de bleu-gris clair avec la même large bande que sur le dessus mais blanche nimbée d'orange aux ailes antérieures.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Adelpha_hesterbergi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_hesterbergi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelpha hesterbergi est présent dans le Nord-Ouest de Équateur et au Costa Rica[1]. 
-Protection
-Pas de statut de protection particulier.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha hesterbergi est présent dans le Nord-Ouest de Équateur et au Costa Rica. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Adelpha_hesterbergi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_hesterbergi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
